--- a/環境構築.xlsx
+++ b/環境構築.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\git\kanosawa\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="17235" windowHeight="11895" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="17235" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="4" r:id="rId1"/>
     <sheet name="pleiades" sheetId="1" r:id="rId2"/>
     <sheet name="OracleXe" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -365,6 +369,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1755,7 +1762,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1797,7 +1804,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1832,7 +1839,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2043,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2083,7 +2090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U110" sqref="U110"/>
     </sheetView>
   </sheetViews>
@@ -2135,7 +2142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U225" sqref="U225"/>
     </sheetView>
   </sheetViews>
@@ -2247,17 +2254,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/環境構築.xlsx
+++ b/環境構築.xlsx
@@ -2050,11 +2050,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">

--- a/環境構築.xlsx
+++ b/環境構築.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\git\kanosawa\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963109DE-5C8D-409D-8393-A9FDFC568F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="17235" windowHeight="11895"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="4" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>http://mergedoc.osdn.jp/</t>
     <phoneticPr fontId="1"/>
@@ -287,11 +288,15 @@
     <t>CREATE USER orauser IDENTIFIED BY orapass DEFAULT TABLESPACE MY_DATA;</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,7 +398,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -431,7 +442,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -469,7 +486,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -529,7 +552,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -594,7 +623,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -632,7 +667,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -692,7 +733,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -752,7 +799,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -790,7 +843,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -828,7 +887,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -866,7 +931,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -904,7 +975,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -942,7 +1019,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -980,7 +1063,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="線吹き出し 1 (枠付き) 10"/>
+        <xdr:cNvPr id="11" name="線吹き出し 1 (枠付き) 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1043,7 +1132,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1103,7 +1198,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1163,7 +1264,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1223,7 +1330,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1283,7 +1396,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1343,7 +1462,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1403,7 +1528,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1463,7 +1594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1523,7 +1660,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1561,7 +1704,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1621,7 +1770,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1659,7 +1814,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1697,7 +1858,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1735,7 +1902,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32"/>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1762,9 +1935,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1802,9 +1975,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1839,7 +2012,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1874,7 +2047,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2047,87 +2220,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="pleiades!A1" display="pleiades"/>
-    <hyperlink ref="B4" location="OracleXe!A1" display="OracleXe"/>
+    <hyperlink ref="B3" location="pleiades!A1" display="pleiades" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" location="OracleXe!A1" display="OracleXe" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U110" sqref="U110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>13</v>
       </c>
@@ -2140,21 +2320,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U225" sqref="U225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2162,17 +2342,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2180,7 +2360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1</v>
       </c>
@@ -2188,17 +2368,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2</v>
       </c>
@@ -2206,12 +2386,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3</v>
       </c>
@@ -2219,12 +2399,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>4</v>
       </c>
@@ -2232,12 +2412,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>5</v>
       </c>
@@ -2245,7 +2425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>25</v>
       </c>
